--- a/적데이터.xlsx
+++ b/적데이터.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,31 +96,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>곽종훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>따까리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>곽종훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연소고1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연소고1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연소고1엔딩</t>
+    <t>연소고2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최진혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최효석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구준헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고4-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불타는 주먹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="A1:O3" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="A1:O12" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="A1:O12"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="key" name="key" dataDxfId="10">
       <xmlColumnPr mapId="3" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -684,12 +756,12 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
@@ -701,7 +773,7 @@
     <col min="10" max="12" width="7.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="6.875" customWidth="1"/>
+    <col min="15" max="15" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -709,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -745,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -753,7 +825,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -773,31 +845,31 @@
         <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -814,76 +886,377 @@
         <v>110</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="E4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="E5" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>110</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1.2</v>
+      </c>
+      <c r="H8">
+        <v>110</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>115</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11">
+        <v>1400</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>125</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>700</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>

--- a/적데이터.xlsx
+++ b/적데이터.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="75">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,142 @@
   </si>
   <si>
     <t>불타는 주먹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생2</t>
+  </si>
+  <si>
+    <t>팔공공고생3</t>
+  </si>
+  <si>
+    <t>팔공공고생4</t>
+  </si>
+  <si>
+    <t>팔공공고생5</t>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김갑평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국지고생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국지고생2</t>
+  </si>
+  <si>
+    <t>국지고생3</t>
+  </si>
+  <si>
+    <t>국지고생4</t>
+  </si>
+  <si>
+    <t>국지고생5</t>
+  </si>
+  <si>
+    <t>대구대전1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국지고생6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬히트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마동환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마형환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전4-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전5-엔딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="A1:O12" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="A1:O12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="A1:O41" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="A1:O41"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="key" name="key" dataDxfId="10">
       <xmlColumnPr mapId="3" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -753,16 +889,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
@@ -771,7 +907,7 @@
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="12" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
     <col min="14" max="14" width="14.375" customWidth="1"/>
     <col min="15" max="15" width="33.75" customWidth="1"/>
   </cols>
@@ -1245,9 +1381,15 @@
       <c r="I12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1258,29 +1400,1152 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>145</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>145</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="E15">
+        <v>2100</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>160</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16">
+        <v>2100</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>160</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17">
+        <v>2100</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>170</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18">
+        <v>2700</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19">
+        <v>2700</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20">
+        <v>2800</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>230</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21">
+        <v>2800</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>1.2</v>
+      </c>
+      <c r="H21">
+        <v>240</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22">
+        <v>3000</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>1.2</v>
+      </c>
+      <c r="H22">
+        <v>280</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23">
+        <v>11000</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>2500</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24">
+        <v>4500</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26">
+        <v>4500</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>500</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27">
+        <v>2000</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>500</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28">
+        <v>4500</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>600</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29">
+        <v>4500</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>500</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30">
+        <v>2000</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31">
+        <v>4500</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32">
+        <v>2000</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>500</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33">
+        <v>4500</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>600</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34">
+        <v>2500</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>700</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35">
+        <v>15000</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>5000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36">
+        <v>25000</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
+        <v>4000</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37">
+        <v>28000</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+      <c r="H37">
+        <v>6000</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38">
+        <v>11000</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>2500</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39">
+        <v>15000</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>5000</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40">
+        <v>25000</v>
+      </c>
+      <c r="F40">
+        <v>80</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="H40">
+        <v>4000</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41">
+        <v>28000</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>6000</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
